--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rbb94767e14854a43"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rf1df0c78a7ac4663"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R143889562c39488e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rccd0085d52684f97"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc192089ff7884a24"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd63815ccb49c4101"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -298,6 +298,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R84a7da679479422b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6bcea445c0cb434c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R143889562c39488e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rccd0085d52684f97"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R27d193f78ceb4461"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rb180ded877c54ff1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd63815ccb49c4101"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0f325224407a4116"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -298,6 +298,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6bcea445c0cb434c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Racc00ba7467e4afb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R27d193f78ceb4461"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rb180ded877c54ff1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Re22b94d2ce1f446d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="R0fac6d3c27e547ce"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0f325224407a4116"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfc59f00df14d4731"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -298,6 +298,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Racc00ba7467e4afb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R34c7a6e933a04c34"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Re22b94d2ce1f446d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="R0fac6d3c27e547ce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R30ac6b2105534124"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Reae41faa4a47451c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfc59f00df14d4731"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re5f59ae31ca9424c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -298,6 +298,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R34c7a6e933a04c34"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb4cd8c2ec584467f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R30ac6b2105534124"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Reae41faa4a47451c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R023fa3de1d3c412a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Re76fbf90087e4168"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re5f59ae31ca9424c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcbe7ccced50d4e5c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -298,6 +298,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb4cd8c2ec584467f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra2e9ddc4bba64469"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R023fa3de1d3c412a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Re76fbf90087e4168"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R0965a8e4b5fb416a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Re975346713e04d61"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcbe7ccced50d4e5c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rff00854fe3c34ce8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -298,6 +298,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra2e9ddc4bba64469"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R283d178e01724a23"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R0965a8e4b5fb416a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Re975346713e04d61"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rb948c5ac80b14a17"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="R8e3c821260554921"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rff00854fe3c34ce8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2cdc1b9578b54844"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -298,6 +298,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R283d178e01724a23"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R783ffa2f49344ec1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rb948c5ac80b14a17"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="R8e3c821260554921"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rbc06d2b4c7464b6e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rbb80cf87bedb4e22"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2cdc1b9578b54844"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb0d5ece7428e4cb4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -298,6 +298,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R783ffa2f49344ec1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb5b1c24d6c6b4c8e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rbc06d2b4c7464b6e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rbb80cf87bedb4e22"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R77e24edf9cf842a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="R85fb29cad77543cc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb0d5ece7428e4cb4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R26dccda7cabc4642"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -298,6 +298,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb5b1c24d6c6b4c8e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R99598f1f00e6471f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R77e24edf9cf842a5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="R85fb29cad77543cc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rc97b1e7e6477420a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rc494d8c73aef4cfd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R26dccda7cabc4642"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2b40ccc6dc944138"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -298,6 +298,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R99598f1f00e6471f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra1bf72793b284bbe"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rc97b1e7e6477420a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rc494d8c73aef4cfd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R00730bdf53d644fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rd50f60ac36ee4dd4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2b40ccc6dc944138"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R29f2b3d2fd784d5a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -298,6 +298,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra1bf72793b284bbe"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R045f109dada84b0b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R00730bdf53d644fc"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rd50f60ac36ee4dd4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R423c7c88557646f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Ra4d02c15f394451a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R29f2b3d2fd784d5a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re5a5bc0045534562"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -298,6 +298,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R045f109dada84b0b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0e11247795b2431b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/081_ChartSeriesNamesImport_Custom.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R423c7c88557646f6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Ra4d02c15f394451a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rb93da63854ba4ee6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature Chart" sheetId="2" r:id="Rc1364ef0f84c4faf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -191,7 +191,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re5a5bc0045534562"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1c75199763b342ab"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -298,6 +298,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0e11247795b2431b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd8b55c4768674ff5"/>
 </x:worksheet>
 </file>